--- a/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>4,51</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,7</t>
+          <t>1,88; 7,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,55</t>
+          <t>1,75; 8,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,83</t>
+          <t>2,38; 7,02</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517,15%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>355,22%</t>
+          <t>341,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>412,19%</t>
+          <t>547,24%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,68; 1829,85</t>
+          <t>9,25; 1662,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,24; 1497,26</t>
+          <t>116,32; 2619,09</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,0</t>
+          <t>2,85; 9,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,6</t>
+          <t>-0,35; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,96</t>
+          <t>1,96; 6,47</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>176,35%</t>
+          <t>148,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>109,47%</t>
+          <t>102,57%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,8; 379,36</t>
+          <t>44,64; 379,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 157,79</t>
+          <t>-8,68; 190,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,27; 196,11</t>
+          <t>35,9; 218,71</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,14</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>17,63</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 20,68</t>
+          <t>9,76; 20,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 24,69</t>
+          <t>15,16; 25,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,87</t>
+          <t>13,84; 21,08</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>202,21%</t>
+          <t>210,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>284,64%</t>
+          <t>251,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>242,86%</t>
+          <t>233,41%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>107,53; 368,89</t>
+          <t>90,14; 425,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>171,0; 462,35</t>
+          <t>141,19; 441,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>161,61; 358,35</t>
+          <t>146,09; 366,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>6,11</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,48</t>
+          <t>3,73; 12,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,92</t>
+          <t>1,4; 8,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,63</t>
+          <t>3,69; 9,06</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>194,11%</t>
+          <t>210,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>186,15%</t>
+          <t>123,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>189,99%</t>
+          <t>169,1%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>106,41; 307,0</t>
+          <t>71,0; 497,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>122,01; 287,14</t>
+          <t>24,92; 290,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>136,05; 257,32</t>
+          <t>89,27; 315,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 10,49</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 9,85</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 9,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>201,84%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>180,96%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>190,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>123,52; 311,82</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>113,05; 267,68</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>140,02; 259,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.074559812471098</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.162345537108632</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.657022977572672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 7,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 8,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 7,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.916848610273075</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.802690092835025</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.472673045572968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>341,57%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>547,24%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.72831818790785</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.193275643409345</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.385197838761309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 1662,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>116,32; 2619,09</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3.428304149794848</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>5.52491486123852</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>0.1091211364001901</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.198761931157884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 9,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 5,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 6,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>16.88650914499201</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>27.01604247297588</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>148,24%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>57,82%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>102,57%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.847257291327783</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.271954318382469</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.052121390560728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>44,64; 379,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 190,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>35,9; 218,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.291249223537901</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5023260899170143</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.716425076619861</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>15,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>19,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.730842979003436</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.071611255542257</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.372916844537281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>9,76; 20,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>15,16; 25,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>13,84; 21,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.308868227244301</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.5345993492342401</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.9304611781461497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>210,96%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>251,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>233,41%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.3386704346014118</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1079570352998126</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.2879131512564266</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>90,14; 425,67</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>141,19; 441,51</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>146,09; 366,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>3.521371125879475</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.85350335501999</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.039774411843934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +773,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>14.90533153084027</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>20.07648925785227</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>17.64439402859217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 12,43</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 8,05</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 9,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>9.454605352138744</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>15.19243762914312</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>13.87431599000707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>210,45%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>123,58%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>169,1%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>20.67912499593617</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>25.33930174848394</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>21.1271772691222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>71,0; 497,4</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>24,92; 290,88</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>89,27; 315,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>2.124136968557052</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>2.592497026354233</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2.387654338470732</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>8,33</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.9360483282514104</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.461509874582868</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1.479528473727105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>6,12; 10,49</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>6,04; 9,85</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 9,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>4.443893684772649</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>4.520606772976102</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>3.721729686175167</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>201,84%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>180,96%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>190,77%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>8.137619242719456</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>8.679013401870098</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8.419208678396053</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>123,52; 311,82</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>113,05; 267,68</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>140,02; 259,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>5.482890296431117</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.439512812093224</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6.62663978082765</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.88422888786811</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.25740026982898</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>10.09696707413854</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.743592998852988</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.752440593808043</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.748031278716221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.882973166808664</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.9902676985759046</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>1.146259674032261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.996197687856552</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>2.762715422517181</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>2.541554579934656</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
